--- a/Ausarbeitung/Test_Diagramme.xlsx
+++ b/Ausarbeitung/Test_Diagramme.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonas\Desktop\ProjektINF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonas\Desktop\Projekt-Share\Projekt-INF--Uni-Stuttgart\Ausarbeitung\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -535,11 +535,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="368814664"/>
-        <c:axId val="368818192"/>
+        <c:axId val="173932968"/>
+        <c:axId val="350509512"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="368814664"/>
+        <c:axId val="173932968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -582,7 +582,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="368818192"/>
+        <c:crossAx val="350509512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -590,7 +590,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="368818192"/>
+        <c:axId val="350509512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -641,7 +641,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="368814664"/>
+        <c:crossAx val="173932968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1034,11 +1034,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="370562088"/>
-        <c:axId val="370560912"/>
+        <c:axId val="351556296"/>
+        <c:axId val="351556688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="370562088"/>
+        <c:axId val="351556296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1081,7 +1081,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370560912"/>
+        <c:crossAx val="351556688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1089,7 +1089,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="370560912"/>
+        <c:axId val="351556688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1140,7 +1140,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370562088"/>
+        <c:crossAx val="351556296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1533,11 +1533,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="370564048"/>
-        <c:axId val="370562480"/>
+        <c:axId val="351562960"/>
+        <c:axId val="351558648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="370564048"/>
+        <c:axId val="351562960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1580,7 +1580,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370562480"/>
+        <c:crossAx val="351558648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1588,7 +1588,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="370562480"/>
+        <c:axId val="351558648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1639,7 +1639,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370564048"/>
+        <c:crossAx val="351562960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -2033,11 +2033,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="370557776"/>
-        <c:axId val="368815448"/>
+        <c:axId val="351562176"/>
+        <c:axId val="351558256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="370557776"/>
+        <c:axId val="351562176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2080,7 +2080,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="368815448"/>
+        <c:crossAx val="351558256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2088,7 +2088,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="368815448"/>
+        <c:axId val="351558256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2139,7 +2139,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370557776"/>
+        <c:crossAx val="351562176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2532,11 +2532,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="370881160"/>
-        <c:axId val="370878024"/>
+        <c:axId val="351555512"/>
+        <c:axId val="351557864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="370881160"/>
+        <c:axId val="351555512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2579,7 +2579,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370878024"/>
+        <c:crossAx val="351557864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2587,7 +2587,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="370878024"/>
+        <c:axId val="351557864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2638,7 +2638,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370881160"/>
+        <c:crossAx val="351555512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3031,11 +3031,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="370881944"/>
-        <c:axId val="370876848"/>
+        <c:axId val="351559432"/>
+        <c:axId val="351560216"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="370881944"/>
+        <c:axId val="351559432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3078,7 +3078,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370876848"/>
+        <c:crossAx val="351560216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3086,7 +3086,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="370876848"/>
+        <c:axId val="351560216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3137,7 +3137,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370881944"/>
+        <c:crossAx val="351559432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -3531,11 +3531,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="370878416"/>
-        <c:axId val="370874888"/>
+        <c:axId val="351560608"/>
+        <c:axId val="351561392"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="370878416"/>
+        <c:axId val="351560608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3578,7 +3578,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370874888"/>
+        <c:crossAx val="351561392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3586,7 +3586,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="370874888"/>
+        <c:axId val="351561392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3637,7 +3637,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370878416"/>
+        <c:crossAx val="351560608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -4031,11 +4031,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="370874496"/>
-        <c:axId val="370877240"/>
+        <c:axId val="351562568"/>
+        <c:axId val="351470328"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="370874496"/>
+        <c:axId val="351562568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4078,7 +4078,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370877240"/>
+        <c:crossAx val="351470328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4086,7 +4086,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="370877240"/>
+        <c:axId val="351470328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4137,7 +4137,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370874496"/>
+        <c:crossAx val="351562568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4530,11 +4530,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="370878808"/>
-        <c:axId val="370875672"/>
+        <c:axId val="351476208"/>
+        <c:axId val="351469544"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="370878808"/>
+        <c:axId val="351476208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4577,7 +4577,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370875672"/>
+        <c:crossAx val="351469544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4585,7 +4585,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="370875672"/>
+        <c:axId val="351469544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4636,7 +4636,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370878808"/>
+        <c:crossAx val="351476208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5029,11 +5029,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="370879200"/>
-        <c:axId val="370880376"/>
+        <c:axId val="351471896"/>
+        <c:axId val="351471112"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="370879200"/>
+        <c:axId val="351471896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5076,7 +5076,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370880376"/>
+        <c:crossAx val="351471112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5084,7 +5084,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="370880376"/>
+        <c:axId val="351471112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5135,7 +5135,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370879200"/>
+        <c:crossAx val="351471896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5524,11 +5524,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="370880768"/>
-        <c:axId val="371614936"/>
+        <c:axId val="351475424"/>
+        <c:axId val="351476992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="370880768"/>
+        <c:axId val="351475424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5571,7 +5571,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="371614936"/>
+        <c:crossAx val="351476992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5579,7 +5579,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="371614936"/>
+        <c:axId val="351476992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5630,7 +5630,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370880768"/>
+        <c:crossAx val="351475424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6142,11 +6142,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="368816624"/>
-        <c:axId val="368818584"/>
+        <c:axId val="349895928"/>
+        <c:axId val="125133728"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="368816624"/>
+        <c:axId val="349895928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6189,7 +6189,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="368818584"/>
+        <c:crossAx val="125133728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6197,7 +6197,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="368818584"/>
+        <c:axId val="125133728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6248,7 +6248,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="368816624"/>
+        <c:crossAx val="349895928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6637,11 +6637,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="371610624"/>
-        <c:axId val="371613368"/>
+        <c:axId val="351473856"/>
+        <c:axId val="351470720"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="371610624"/>
+        <c:axId val="351473856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6684,7 +6684,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="371613368"/>
+        <c:crossAx val="351470720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6692,7 +6692,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="371613368"/>
+        <c:axId val="351470720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6743,7 +6743,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="371610624"/>
+        <c:crossAx val="351473856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7132,11 +7132,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="371614544"/>
-        <c:axId val="371609840"/>
+        <c:axId val="351472680"/>
+        <c:axId val="351475032"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="371614544"/>
+        <c:axId val="351472680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7179,7 +7179,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="371609840"/>
+        <c:crossAx val="351475032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7187,7 +7187,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="371609840"/>
+        <c:axId val="351475032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7238,7 +7238,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="371614544"/>
+        <c:crossAx val="351472680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7363,7 +7363,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7750,11 +7749,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="371610232"/>
-        <c:axId val="371613760"/>
+        <c:axId val="351474248"/>
+        <c:axId val="351474640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="371610232"/>
+        <c:axId val="351474248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7797,7 +7796,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="371613760"/>
+        <c:crossAx val="351474640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7805,7 +7804,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="371613760"/>
+        <c:axId val="351474640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7856,7 +7855,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="371610232"/>
+        <c:crossAx val="351474248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7870,7 +7869,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8254,11 +8252,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="371615328"/>
-        <c:axId val="371614152"/>
+        <c:axId val="352394008"/>
+        <c:axId val="352394400"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="371615328"/>
+        <c:axId val="352394008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8301,7 +8299,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="371614152"/>
+        <c:crossAx val="352394400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8309,7 +8307,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="371614152"/>
+        <c:axId val="352394400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8360,7 +8358,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="371615328"/>
+        <c:crossAx val="352394008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8749,11 +8747,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="398654136"/>
-        <c:axId val="398654920"/>
+        <c:axId val="352391264"/>
+        <c:axId val="352389696"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="398654136"/>
+        <c:axId val="352391264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8796,7 +8794,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="398654920"/>
+        <c:crossAx val="352389696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8804,7 +8802,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="398654920"/>
+        <c:axId val="352389696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8855,7 +8853,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="398654136"/>
+        <c:crossAx val="352391264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9244,11 +9242,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="561764504"/>
-        <c:axId val="561769992"/>
+        <c:axId val="352387344"/>
+        <c:axId val="352390480"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="561764504"/>
+        <c:axId val="352387344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9291,7 +9289,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="561769992"/>
+        <c:crossAx val="352390480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9299,7 +9297,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="561769992"/>
+        <c:axId val="352390480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9350,7 +9348,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="561764504"/>
+        <c:crossAx val="352387344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9796,11 +9794,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="567605144"/>
-        <c:axId val="567607496"/>
+        <c:axId val="352391656"/>
+        <c:axId val="352392048"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="567605144"/>
+        <c:axId val="352391656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9843,7 +9841,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="567607496"/>
+        <c:crossAx val="352392048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9851,7 +9849,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="567607496"/>
+        <c:axId val="352392048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9902,7 +9900,1342 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="567605144"/>
+        <c:crossAx val="352391656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1000" baseline="0"/>
+              <a:t>Time (ns) divided by n*log(n)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1000" baseline="0"/>
+              <a:t>Comparison with heapsort</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1000" baseline="0"/>
+              <a:t>Type to sort: Integer</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Chen</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle1!$A$433:$A$435</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$B$438:$B$440</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.0414734759986758E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0092065008063044E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0207057176278133E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Reinhardt</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle1!$A$433:$A$435</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$C$438:$C$440</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>8.5993231994691745E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.2734481948297262E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.4549640141901826E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Bottom-up heapsort</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle1!$A$433:$A$435</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$D$438:$D$440</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>9.7030496785711629E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1267053887995714E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5788662412868509E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="375023288"/>
+        <c:axId val="375024072"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="375023288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="375024072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="375024072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="375023288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1000" baseline="0"/>
+              <a:t>Comparisons divided by n*log(n)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1000" baseline="0"/>
+              <a:t>Comparison with heapsort</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Chen</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle1!$A$433:$A$435</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$B$452:$B$454</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.1317446954334143</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1103958760636357</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2083626960282254</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Reinhardt</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle1!$A$433:$A$435</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$C$452:$C$454</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.354999176611003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1755109046490082</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1910224768529054</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Bottom-up heapsort</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle1!$A$433:$A$435</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$D$452:$D$454</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.0235777946447775</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0207752125525265</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0185743119959765</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="633679968"/>
+        <c:axId val="626120296"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="633679968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="626120296"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="626120296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="633679968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1000" baseline="0"/>
+              <a:t>Assignments divided by n*log(n)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1000" baseline="0"/>
+              <a:t>Comparison with heapsort</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Chen</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle1!$A$433:$A$435</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$B$465:$B$467</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.0018426979905728</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9980186451487967</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0825999626233869</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Reinhardt</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle1!$A$433:$A$435</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$C$465:$C$467</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.2291097584953641</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0947274082425236</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1457233059078868</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Bottom-up heapsort</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle1!$A$433:$A$435</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$D$465:$D$467</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.9866443959128215</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9896927446274366</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9917439717262588</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="557151848"/>
+        <c:axId val="557153808"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="557151848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="557153808"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="557153808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="557151848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10410,11 +11743,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="368818976"/>
-        <c:axId val="368819368"/>
+        <c:axId val="350040944"/>
+        <c:axId val="350039768"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="368818976"/>
+        <c:axId val="350040944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10457,7 +11790,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="368819368"/>
+        <c:crossAx val="350039768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10465,7 +11798,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="368819368"/>
+        <c:axId val="350039768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10516,7 +11849,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="368818976"/>
+        <c:crossAx val="350040944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11009,11 +12342,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="368820152"/>
-        <c:axId val="368812704"/>
+        <c:axId val="350038592"/>
+        <c:axId val="350040160"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="368820152"/>
+        <c:axId val="350038592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11056,7 +12389,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="368812704"/>
+        <c:crossAx val="350040160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11064,7 +12397,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="368812704"/>
+        <c:axId val="350040160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11115,7 +12448,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="368820152"/>
+        <c:crossAx val="350038592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11608,11 +12941,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="368815056"/>
-        <c:axId val="368817016"/>
+        <c:axId val="350038984"/>
+        <c:axId val="350037808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="368815056"/>
+        <c:axId val="350038984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11655,7 +12988,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="368817016"/>
+        <c:crossAx val="350037808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11663,7 +12996,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="368817016"/>
+        <c:axId val="350037808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11714,7 +13047,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="368815056"/>
+        <c:crossAx val="350038984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12207,11 +13540,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="370563264"/>
-        <c:axId val="370558168"/>
+        <c:axId val="350039376"/>
+        <c:axId val="350041336"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="370563264"/>
+        <c:axId val="350039376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12254,7 +13587,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370558168"/>
+        <c:crossAx val="350041336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12262,7 +13595,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="370558168"/>
+        <c:axId val="350041336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12313,7 +13646,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370563264"/>
+        <c:crossAx val="350039376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12706,11 +14039,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="370558560"/>
-        <c:axId val="370563656"/>
+        <c:axId val="350037024"/>
+        <c:axId val="350034280"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="370558560"/>
+        <c:axId val="350037024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12753,7 +14086,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370563656"/>
+        <c:crossAx val="350034280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12761,7 +14094,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="370563656"/>
+        <c:axId val="350034280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12812,7 +14145,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370558560"/>
+        <c:crossAx val="350037024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13205,11 +14538,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="370561304"/>
-        <c:axId val="370558952"/>
+        <c:axId val="350035456"/>
+        <c:axId val="350036632"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="370561304"/>
+        <c:axId val="350035456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13252,7 +14585,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370558952"/>
+        <c:crossAx val="350036632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13260,7 +14593,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="370558952"/>
+        <c:axId val="350036632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13311,7 +14644,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370561304"/>
+        <c:crossAx val="350035456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -13705,11 +15038,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="370560128"/>
-        <c:axId val="370559736"/>
+        <c:axId val="350034672"/>
+        <c:axId val="350035064"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="370560128"/>
+        <c:axId val="350034672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13752,7 +15085,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370559736"/>
+        <c:crossAx val="350035064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13760,7 +15093,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="370559736"/>
+        <c:axId val="350035064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13811,7 +15144,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370560128"/>
+        <c:crossAx val="350034672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -14653,6 +15986,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors27.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors28.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors29.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -23988,6 +25441,1515 @@
 </file>
 
 <file path=xl/charts/style26.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style27.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style28.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style29.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -29931,6 +32893,206 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>410</xdr:row>
+      <xdr:rowOff>143387</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3825363" cy="491614"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="Textfeld 51"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="73629274"/>
+          <a:ext cx="3825363" cy="491614"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" baseline="0"/>
+            <a:t>Folgendes Diagramm eher nicht verwenden (inkonsistent/überflüssig):</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>428</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1869153" cy="312379"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="Textfeld 53"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="76712097"/>
+          <a:ext cx="1869153" cy="312379"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" baseline="0"/>
+            <a:t>Comparison with heapsort:</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>429</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>696350</xdr:colOff>
+      <xdr:row>442</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="49" name="Diagramm 48"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId27"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>443</xdr:row>
+      <xdr:rowOff>56331</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>696350</xdr:colOff>
+      <xdr:row>456</xdr:row>
+      <xdr:rowOff>113482</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="57" name="Diagramm 56"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId28"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>737420</xdr:colOff>
+      <xdr:row>457</xdr:row>
+      <xdr:rowOff>102419</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>670745</xdr:colOff>
+      <xdr:row>470</xdr:row>
+      <xdr:rowOff>159571</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="58" name="Diagramm 57"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId29"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -30197,10 +33359,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R426"/>
+  <dimension ref="A1:R468"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A395" zoomScale="93" workbookViewId="0">
-      <selection activeCell="Q163" sqref="Q163"/>
+    <sheetView tabSelected="1" topLeftCell="A420" zoomScale="93" workbookViewId="0">
+      <selection activeCell="D451" sqref="D451"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -35263,6 +38425,399 @@
         <v>0.20150247799985554</v>
       </c>
     </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A432" s="1"/>
+      <c r="B432" s="1"/>
+      <c r="C432" s="1"/>
+      <c r="D432" s="1"/>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A433" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="B433" s="1">
+        <v>207582</v>
+      </c>
+      <c r="C433" s="1">
+        <v>171398</v>
+      </c>
+      <c r="D433" s="1">
+        <v>193397</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A434" s="1">
+        <v>10000000</v>
+      </c>
+      <c r="B434" s="1">
+        <v>2346758</v>
+      </c>
+      <c r="C434" s="1">
+        <v>1923866</v>
+      </c>
+      <c r="D434" s="1">
+        <v>2619984</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A435" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="B435" s="1">
+        <v>27125688</v>
+      </c>
+      <c r="C435" s="1">
+        <v>22469426</v>
+      </c>
+      <c r="D435" s="1">
+        <v>41959041</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A436" s="1"/>
+      <c r="B436" s="1"/>
+      <c r="C436" s="1"/>
+      <c r="D436" s="1"/>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A437" s="1"/>
+      <c r="B437" s="1"/>
+      <c r="C437" s="1"/>
+      <c r="D437" s="1"/>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A438" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="B438" s="1">
+        <f>B433/ (A433*LOG(A433, 2))</f>
+        <v>1.0414734759986758E-2</v>
+      </c>
+      <c r="C438" s="1">
+        <f>C433/ (A433*LOG(A433, 2))</f>
+        <v>8.5993231994691745E-3</v>
+      </c>
+      <c r="D438" s="1">
+        <f>D433/ (A433*LOG(A433, 2))</f>
+        <v>9.7030496785711629E-3</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A439" s="1">
+        <v>10000000</v>
+      </c>
+      <c r="B439" s="1">
+        <f t="shared" ref="B439:B440" si="103">B434/ (A434*LOG(A434, 2))</f>
+        <v>1.0092065008063044E-2</v>
+      </c>
+      <c r="C439" s="1">
+        <f t="shared" ref="C439:C440" si="104">C434/ (A434*LOG(A434, 2))</f>
+        <v>8.2734481948297262E-3</v>
+      </c>
+      <c r="D439" s="1">
+        <f t="shared" ref="D439:D440" si="105">D434/ (A434*LOG(A434, 2))</f>
+        <v>1.1267053887995714E-2</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A440" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="B440" s="1">
+        <f t="shared" si="103"/>
+        <v>1.0207057176278133E-2</v>
+      </c>
+      <c r="C440" s="1">
+        <f t="shared" si="104"/>
+        <v>8.4549640141901826E-3</v>
+      </c>
+      <c r="D440" s="1">
+        <f t="shared" si="105"/>
+        <v>1.5788662412868509E-2</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A441" s="1"/>
+      <c r="B441" s="1"/>
+      <c r="C441" s="1"/>
+      <c r="D441" s="1"/>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A442" s="1"/>
+      <c r="B442" s="1"/>
+      <c r="C442" s="1"/>
+      <c r="D442" s="1"/>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A443" s="1"/>
+      <c r="B443" s="1"/>
+      <c r="C443" s="1"/>
+      <c r="D443" s="1"/>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A444" s="1"/>
+      <c r="B444" s="1"/>
+      <c r="C444" s="1"/>
+      <c r="D444" s="1"/>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A445" s="1"/>
+      <c r="B445" s="1"/>
+      <c r="C445" s="1"/>
+      <c r="D445" s="1"/>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A446" s="1"/>
+      <c r="B446" s="1"/>
+      <c r="C446" s="1"/>
+      <c r="D446" s="1"/>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A447" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="B447" s="1">
+        <v>22557447</v>
+      </c>
+      <c r="C447" s="1">
+        <v>27007259</v>
+      </c>
+      <c r="D447" s="1">
+        <v>20401511</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A448" s="1">
+        <v>10000000</v>
+      </c>
+      <c r="B448" s="1">
+        <v>258205868</v>
+      </c>
+      <c r="C448" s="1">
+        <v>273347389</v>
+      </c>
+      <c r="D448" s="1">
+        <v>237365930</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A449" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="B449" s="1">
+        <v>3211275191</v>
+      </c>
+      <c r="C449" s="1">
+        <v>3165192822</v>
+      </c>
+      <c r="D449" s="1">
+        <v>2706904499</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A450" s="1"/>
+      <c r="B450" s="1"/>
+      <c r="C450" s="1"/>
+      <c r="D450" s="1"/>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A451" s="1"/>
+      <c r="B451" s="1"/>
+      <c r="C451" s="1"/>
+      <c r="D451" s="1"/>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A452" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="B452" s="1">
+        <f>B447/ (A447*LOG(A447, 2))</f>
+        <v>1.1317446954334143</v>
+      </c>
+      <c r="C452" s="1">
+        <f>C447/ (A447*LOG(A447, 2))</f>
+        <v>1.354999176611003</v>
+      </c>
+      <c r="D452" s="1">
+        <f>D447/ (A447*LOG(A447, 2))</f>
+        <v>1.0235777946447775</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A453" s="1">
+        <v>10000000</v>
+      </c>
+      <c r="B453" s="1">
+        <f t="shared" ref="B453:B454" si="106">B448/ (A448*LOG(A448, 2))</f>
+        <v>1.1103958760636357</v>
+      </c>
+      <c r="C453" s="1">
+        <f t="shared" ref="C453:C454" si="107">C448/ (A448*LOG(A448, 2))</f>
+        <v>1.1755109046490082</v>
+      </c>
+      <c r="D453" s="1">
+        <f t="shared" ref="D453:D454" si="108">D448/ (A448*LOG(A448, 2))</f>
+        <v>1.0207752125525265</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A454" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="B454" s="1">
+        <f t="shared" si="106"/>
+        <v>1.2083626960282254</v>
+      </c>
+      <c r="C454" s="1">
+        <f t="shared" si="107"/>
+        <v>1.1910224768529054</v>
+      </c>
+      <c r="D454" s="1">
+        <f t="shared" si="108"/>
+        <v>1.0185743119959765</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A455" s="1"/>
+      <c r="B455" s="1"/>
+      <c r="C455" s="1"/>
+      <c r="D455" s="1"/>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A456" s="1"/>
+      <c r="B456" s="1"/>
+      <c r="C456" s="1"/>
+      <c r="D456" s="1"/>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A457" s="1"/>
+      <c r="B457" s="1"/>
+      <c r="C457" s="1"/>
+      <c r="D457" s="1"/>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A458" s="1"/>
+      <c r="B458" s="1"/>
+      <c r="C458" s="1"/>
+      <c r="D458" s="1"/>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A459" s="1"/>
+      <c r="B459" s="1"/>
+      <c r="C459" s="1"/>
+      <c r="D459" s="1"/>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A460" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="B460" s="1">
+        <v>39899865</v>
+      </c>
+      <c r="C460" s="1">
+        <v>44429654</v>
+      </c>
+      <c r="D460" s="1">
+        <v>39596939</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A461" s="1">
+        <v>10000000</v>
+      </c>
+      <c r="B461" s="1">
+        <v>464609199</v>
+      </c>
+      <c r="C461" s="1">
+        <v>487097368</v>
+      </c>
+      <c r="D461" s="1">
+        <v>462673136</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A462" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="B462" s="1">
+        <v>5534597861</v>
+      </c>
+      <c r="C462" s="1">
+        <v>5702350827</v>
+      </c>
+      <c r="D462" s="1">
+        <v>5293144206</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A463" s="1"/>
+      <c r="B463" s="1"/>
+      <c r="C463" s="1"/>
+      <c r="D463" s="1"/>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A464" s="1"/>
+      <c r="B464" s="1"/>
+      <c r="C464" s="1"/>
+      <c r="D464" s="1"/>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A465" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="B465" s="1">
+        <f>B460/ (A460*LOG(A460, 2))</f>
+        <v>2.0018426979905728</v>
+      </c>
+      <c r="C465" s="1">
+        <f>C460/ (A460*LOG(A460, 2))</f>
+        <v>2.2291097584953641</v>
+      </c>
+      <c r="D465" s="1">
+        <f>D460/ (A460*LOG(A460, 2))</f>
+        <v>1.9866443959128215</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A466" s="1">
+        <v>10000000</v>
+      </c>
+      <c r="B466" s="1">
+        <f t="shared" ref="B466:B467" si="109">B461/ (A461*LOG(A461, 2))</f>
+        <v>1.9980186451487967</v>
+      </c>
+      <c r="C466" s="1">
+        <f t="shared" ref="C466:C467" si="110">C461/ (A461*LOG(A461, 2))</f>
+        <v>2.0947274082425236</v>
+      </c>
+      <c r="D466" s="1">
+        <f t="shared" ref="D466:D467" si="111">D461/ (A461*LOG(A461, 2))</f>
+        <v>1.9896927446274366</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A467" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="B467" s="1">
+        <f t="shared" si="109"/>
+        <v>2.0825999626233869</v>
+      </c>
+      <c r="C467" s="1">
+        <f t="shared" si="110"/>
+        <v>2.1457233059078868</v>
+      </c>
+      <c r="D467" s="1">
+        <f t="shared" si="111"/>
+        <v>1.9917439717262588</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A468" s="1"/>
+      <c r="B468" s="1"/>
+      <c r="C468" s="1"/>
+      <c r="D468" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Ausarbeitung/Test_Diagramme.xlsx
+++ b/Ausarbeitung/Test_Diagramme.xlsx
@@ -148,7 +148,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -535,11 +534,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="173932968"/>
-        <c:axId val="350509512"/>
+        <c:axId val="350896904"/>
+        <c:axId val="172537680"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="173932968"/>
+        <c:axId val="350896904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -582,7 +581,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="350509512"/>
+        <c:crossAx val="172537680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -590,7 +589,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="350509512"/>
+        <c:axId val="172537680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -641,7 +640,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="173932968"/>
+        <c:crossAx val="350896904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -655,7 +654,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1034,11 +1032,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="351556296"/>
-        <c:axId val="351556688"/>
+        <c:axId val="352426240"/>
+        <c:axId val="352422320"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="351556296"/>
+        <c:axId val="352426240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1081,7 +1079,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="351556688"/>
+        <c:crossAx val="352422320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1089,7 +1087,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="351556688"/>
+        <c:axId val="352422320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1140,7 +1138,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="351556296"/>
+        <c:crossAx val="352426240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1533,11 +1531,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="351562960"/>
-        <c:axId val="351558648"/>
+        <c:axId val="352423888"/>
+        <c:axId val="352419576"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="351562960"/>
+        <c:axId val="352423888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1580,7 +1578,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="351558648"/>
+        <c:crossAx val="352419576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1588,7 +1586,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="351558648"/>
+        <c:axId val="352419576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1639,7 +1637,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="351562960"/>
+        <c:crossAx val="352423888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -2033,11 +2031,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="351562176"/>
-        <c:axId val="351558256"/>
+        <c:axId val="352419968"/>
+        <c:axId val="352421144"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="351562176"/>
+        <c:axId val="352419968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2080,7 +2078,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="351558256"/>
+        <c:crossAx val="352421144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2088,7 +2086,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="351558256"/>
+        <c:axId val="352421144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2139,7 +2137,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="351562176"/>
+        <c:crossAx val="352419968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2532,11 +2530,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="351555512"/>
-        <c:axId val="351557864"/>
+        <c:axId val="352425456"/>
+        <c:axId val="352424672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="351555512"/>
+        <c:axId val="352425456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2579,7 +2577,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="351557864"/>
+        <c:crossAx val="352424672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2587,7 +2585,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="351557864"/>
+        <c:axId val="352424672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2638,7 +2636,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="351555512"/>
+        <c:crossAx val="352425456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3031,11 +3029,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="351559432"/>
-        <c:axId val="351560216"/>
+        <c:axId val="352421536"/>
+        <c:axId val="352423104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="351559432"/>
+        <c:axId val="352421536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3078,7 +3076,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="351560216"/>
+        <c:crossAx val="352423104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3086,7 +3084,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="351560216"/>
+        <c:axId val="352423104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3137,7 +3135,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="351559432"/>
+        <c:crossAx val="352421536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -3531,11 +3529,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="351560608"/>
-        <c:axId val="351561392"/>
+        <c:axId val="351599176"/>
+        <c:axId val="351599960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="351560608"/>
+        <c:axId val="351599176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3578,7 +3576,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="351561392"/>
+        <c:crossAx val="351599960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3586,7 +3584,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="351561392"/>
+        <c:axId val="351599960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3637,7 +3635,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="351560608"/>
+        <c:crossAx val="351599176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -4031,11 +4029,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="351562568"/>
-        <c:axId val="351470328"/>
+        <c:axId val="351596432"/>
+        <c:axId val="353084024"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="351562568"/>
+        <c:axId val="351596432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4078,7 +4076,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="351470328"/>
+        <c:crossAx val="353084024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4086,7 +4084,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="351470328"/>
+        <c:axId val="353084024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4137,7 +4135,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="351562568"/>
+        <c:crossAx val="351596432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4530,11 +4528,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="351476208"/>
-        <c:axId val="351469544"/>
+        <c:axId val="353086768"/>
+        <c:axId val="353083240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="351476208"/>
+        <c:axId val="353086768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4577,7 +4575,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="351469544"/>
+        <c:crossAx val="353083240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4585,7 +4583,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="351469544"/>
+        <c:axId val="353083240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4636,7 +4634,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="351476208"/>
+        <c:crossAx val="353086768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5029,11 +5027,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="351471896"/>
-        <c:axId val="351471112"/>
+        <c:axId val="353081280"/>
+        <c:axId val="353081672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="351471896"/>
+        <c:axId val="353081280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5076,7 +5074,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="351471112"/>
+        <c:crossAx val="353081672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5084,7 +5082,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="351471112"/>
+        <c:axId val="353081672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5135,7 +5133,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="351471896"/>
+        <c:crossAx val="353081280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5251,7 +5249,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE" sz="1000" baseline="0"/>
-              <a:t>Time (ns) divided by n*log(n)</a:t>
+              <a:t>Time (ns) divided by n</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -5343,13 +5341,13 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.4347863670477049E-3</c:v>
+                  <c:v>3.3363799999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2811501719588861E-3</c:v>
+                  <c:v>3.4047109999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1605263572816225E-3</c:v>
+                  <c:v>3.4696666000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5396,13 +5394,13 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2.7361476391601143E-4</c:v>
+                  <c:v>6.3625000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.4212896156238829E-4</c:v>
+                  <c:v>6.4346799999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.1529899424329004E-4</c:v>
+                  <c:v>6.4368699999999999E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5449,13 +5447,13 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4.2919566653217591E-4</c:v>
+                  <c:v>9.9802999999999992E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0934613925090739E-4</c:v>
+                  <c:v>1.3536090000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.2874266418179866E-4</c:v>
+                  <c:v>1.5808005999999999E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5502,13 +5500,13 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>6.1165424733262432E-4</c:v>
+                  <c:v>1.4223100000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.4004668335869848E-4</c:v>
+                  <c:v>1.435197E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.7529525672054102E-4</c:v>
+                  <c:v>1.421007E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5524,11 +5522,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="351475424"/>
-        <c:axId val="351476992"/>
+        <c:axId val="353085200"/>
+        <c:axId val="353082064"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="351475424"/>
+        <c:axId val="353085200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5571,7 +5569,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="351476992"/>
+        <c:crossAx val="353082064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5579,7 +5577,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="351476992"/>
+        <c:axId val="353082064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5630,7 +5628,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="351475424"/>
+        <c:crossAx val="353085200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6142,11 +6140,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="349895928"/>
-        <c:axId val="125133728"/>
+        <c:axId val="351508088"/>
+        <c:axId val="349596784"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="349895928"/>
+        <c:axId val="351508088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6189,7 +6187,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="125133728"/>
+        <c:crossAx val="349596784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6197,7 +6195,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="125133728"/>
+        <c:axId val="349596784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6248,7 +6246,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="349895928"/>
+        <c:crossAx val="351508088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6364,7 +6362,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE" sz="1000" baseline="0"/>
-              <a:t>Comparisons divided by n*log(n)</a:t>
+              <a:t>Comparisons divided by n</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -6456,13 +6454,13 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4.8959565799503502E-2</c:v>
+                  <c:v>1.1384810999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.2487398422988945E-2</c:v>
+                  <c:v>1.1291206600000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.7673011503753434E-2</c:v>
+                  <c:v>1.1263233180000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6509,13 +6507,13 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4.3004276493997434E-2</c:v>
+                  <c:v>0.99999979999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.7628748705422654E-2</c:v>
+                  <c:v>0.99999998000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.3447777229102353E-2</c:v>
+                  <c:v>0.99999999799999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6562,13 +6560,13 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>6.4812540744443869E-2</c:v>
+                  <c:v>1.5071182000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.6505555926659706E-2</c:v>
+                  <c:v>1.5016591500000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.0213994206508281E-2</c:v>
+                  <c:v>1.5012655029999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6615,13 +6613,13 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4.3004276493997434E-2</c:v>
+                  <c:v>0.99999979999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.762874832913516E-2</c:v>
+                  <c:v>0.99999996999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.3447777262550132E-2</c:v>
+                  <c:v>0.99999999900000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6637,11 +6635,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="351473856"/>
-        <c:axId val="351470720"/>
+        <c:axId val="353085984"/>
+        <c:axId val="353079320"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="351473856"/>
+        <c:axId val="353085984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6684,7 +6682,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="351470720"/>
+        <c:crossAx val="353079320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6692,7 +6690,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="351470720"/>
+        <c:axId val="353079320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6743,7 +6741,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="351473856"/>
+        <c:crossAx val="353085984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6859,7 +6857,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE" sz="1000" baseline="0"/>
-              <a:t>Assignments divided by n*log(n)</a:t>
+              <a:t>Assignments divided by n</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -6951,13 +6949,13 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.12989204348989958</c:v>
+                  <c:v>3.0204442</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.11314187062882347</c:v>
+                  <c:v>3.0067932700000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.10042004332834099</c:v>
+                  <c:v>3.002293469</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7004,13 +7002,13 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.12901284238327784</c:v>
+                  <c:v>2.9999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.11288624724513045</c:v>
+                  <c:v>2.9999999700000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.10034333168730707</c:v>
+                  <c:v>2.9999999939999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7057,13 +7055,13 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.17384918743088626</c:v>
+                  <c:v>4.0426015</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.15054984205398869</c:v>
+                  <c:v>4.0009259999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.13458288219197698</c:v>
+                  <c:v>4.0236719169999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7110,13 +7108,13 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>6.4506423341853164E-2</c:v>
+                  <c:v>1.4999998999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.644312381070897E-2</c:v>
+                  <c:v>1.4999999900000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.0171665943996864E-2</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7132,11 +7130,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="351472680"/>
-        <c:axId val="351475032"/>
+        <c:axId val="353080104"/>
+        <c:axId val="353086376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="351472680"/>
+        <c:axId val="353080104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7179,7 +7177,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="351475032"/>
+        <c:crossAx val="353086376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7187,7 +7185,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="351475032"/>
+        <c:axId val="353086376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7238,7 +7236,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="351472680"/>
+        <c:crossAx val="353080104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7358,11 +7356,21 @@
             </a:r>
             <a:r>
               <a:rPr lang="de-DE" sz="1000" baseline="0"/>
-              <a:t> with another normalisation (minus nlogn and then divided by n) </a:t>
+              <a:t> with another normalisation </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1000" baseline="0"/>
+              <a:t>(minus 1,3*nlogn and then divided by n) </a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7460,25 +7468,25 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>7.7312157153379122</c:v>
+                  <c:v>4.741480429939287</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.3186876204505502</c:v>
+                  <c:v>0.33237390658571386</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.166229525563188</c:v>
+                  <c:v>0.18333738323214463</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.060457430675827</c:v>
+                  <c:v>1.0809868598785735</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.008163135788462</c:v>
+                  <c:v>-2.9678858634750007</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.9770010909010987</c:v>
+                  <c:v>-2.9956263368285705</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.856185188013737</c:v>
+                  <c:v>-2.113020668182144</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7545,25 +7553,25 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>4.5042157153379119</c:v>
+                  <c:v>1.5144804299392871</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.4984876204505504</c:v>
+                  <c:v>-0.48782609341428618</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.0689895255631887</c:v>
+                  <c:v>1.0860973832321446</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.6265654306758268</c:v>
+                  <c:v>-3.3529051401214263</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.5666761357884615</c:v>
+                  <c:v>-4.4093728634750011</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.5376476609010981</c:v>
+                  <c:v>-2.4349797668285702</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.5391886850137366</c:v>
+                  <c:v>-3.4300171711821443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7630,25 +7638,25 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>4.1452157153379119</c:v>
+                  <c:v>1.1554804299392871</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.8406876204505505</c:v>
+                  <c:v>-0.14562609341428615</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.6432895255631887</c:v>
+                  <c:v>1.6603973832321446</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.3230194306758269</c:v>
+                  <c:v>-2.6564511401214266</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.2988126357884617</c:v>
+                  <c:v>-3.6772363634750009</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.2811227909010983</c:v>
+                  <c:v>-1.6915046368285704</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.2885657500137366</c:v>
+                  <c:v>-2.6806401061821443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7715,25 +7723,25 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>-0.20378428466208789</c:v>
+                  <c:v>-3.1935195700607126</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.51041237954944951</c:v>
+                  <c:v>-4.4967260934142859</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.65609047443681168</c:v>
+                  <c:v>-5.6389826167678549</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.10900556932417303</c:v>
+                  <c:v>-6.0884761401214265</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.51090776421153838</c:v>
+                  <c:v>-7.4869567634750007</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.61721677909890171</c:v>
+                  <c:v>-8.5898442068285696</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.0816100137367248E-3</c:v>
+                  <c:v>-8.9611242461821448</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7749,11 +7757,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="351474248"/>
-        <c:axId val="351474640"/>
+        <c:axId val="353080888"/>
+        <c:axId val="353082848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="351474248"/>
+        <c:axId val="353080888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7796,7 +7804,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="351474640"/>
+        <c:crossAx val="353082848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7804,7 +7812,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="351474640"/>
+        <c:axId val="353082848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7855,7 +7863,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="351474248"/>
+        <c:crossAx val="353080888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7869,6 +7877,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8252,11 +8261,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="352394008"/>
-        <c:axId val="352394400"/>
+        <c:axId val="372857104"/>
+        <c:axId val="372854360"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="352394008"/>
+        <c:axId val="372857104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8299,7 +8308,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="352394400"/>
+        <c:crossAx val="372854360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8307,7 +8316,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="352394400"/>
+        <c:axId val="372854360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8358,7 +8367,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="352394008"/>
+        <c:crossAx val="372857104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8747,11 +8756,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="352391264"/>
-        <c:axId val="352389696"/>
+        <c:axId val="372852792"/>
+        <c:axId val="372853184"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="352391264"/>
+        <c:axId val="372852792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8794,7 +8803,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="352389696"/>
+        <c:crossAx val="372853184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8802,7 +8811,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="352389696"/>
+        <c:axId val="372853184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8853,7 +8862,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="352391264"/>
+        <c:crossAx val="372852792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9242,11 +9251,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="352387344"/>
-        <c:axId val="352390480"/>
+        <c:axId val="372854752"/>
+        <c:axId val="372855536"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="352387344"/>
+        <c:axId val="372854752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9289,7 +9298,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="352390480"/>
+        <c:crossAx val="372855536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9297,7 +9306,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="352390480"/>
+        <c:axId val="372855536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9348,7 +9357,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="352387344"/>
+        <c:crossAx val="372854752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9794,11 +9803,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="352391656"/>
-        <c:axId val="352392048"/>
+        <c:axId val="372853576"/>
+        <c:axId val="372858280"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="352391656"/>
+        <c:axId val="372853576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9841,7 +9850,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="352392048"/>
+        <c:crossAx val="372858280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9849,7 +9858,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="352392048"/>
+        <c:axId val="372858280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9900,7 +9909,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="352391656"/>
+        <c:crossAx val="372853576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10245,11 +10254,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="375023288"/>
-        <c:axId val="375024072"/>
+        <c:axId val="372855144"/>
+        <c:axId val="372853968"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="375023288"/>
+        <c:axId val="372855144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10292,7 +10301,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="375024072"/>
+        <c:crossAx val="372853968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10300,7 +10309,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="375024072"/>
+        <c:axId val="372853968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10351,7 +10360,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="375023288"/>
+        <c:crossAx val="372855144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10687,11 +10696,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="633679968"/>
-        <c:axId val="626120296"/>
+        <c:axId val="372850832"/>
+        <c:axId val="372851224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="633679968"/>
+        <c:axId val="372850832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10734,7 +10743,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="626120296"/>
+        <c:crossAx val="372851224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10742,7 +10751,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="626120296"/>
+        <c:axId val="372851224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10793,7 +10802,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="633679968"/>
+        <c:crossAx val="372850832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10923,7 +10932,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11129,11 +11137,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="557151848"/>
-        <c:axId val="557153808"/>
+        <c:axId val="372852008"/>
+        <c:axId val="372852400"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="557151848"/>
+        <c:axId val="372852008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11176,7 +11184,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="557153808"/>
+        <c:crossAx val="372852400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11184,7 +11192,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="557153808"/>
+        <c:axId val="372852400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11235,7 +11243,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="557151848"/>
+        <c:crossAx val="372852008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11249,7 +11257,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11743,11 +11750,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="350040944"/>
-        <c:axId val="350039768"/>
+        <c:axId val="351599568"/>
+        <c:axId val="351598784"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="350040944"/>
+        <c:axId val="351599568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11790,7 +11797,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="350039768"/>
+        <c:crossAx val="351598784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11798,7 +11805,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="350039768"/>
+        <c:axId val="351598784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11849,7 +11856,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="350040944"/>
+        <c:crossAx val="351599568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12342,11 +12349,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="350038592"/>
-        <c:axId val="350040160"/>
+        <c:axId val="351594080"/>
+        <c:axId val="351594472"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="350038592"/>
+        <c:axId val="351594080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12389,7 +12396,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="350040160"/>
+        <c:crossAx val="351594472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12397,7 +12404,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="350040160"/>
+        <c:axId val="351594472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12448,7 +12455,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="350038592"/>
+        <c:crossAx val="351594080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12941,11 +12948,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="350038984"/>
-        <c:axId val="350037808"/>
+        <c:axId val="351595648"/>
+        <c:axId val="351596824"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="350038984"/>
+        <c:axId val="351595648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12988,7 +12995,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="350037808"/>
+        <c:crossAx val="351596824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12996,7 +13003,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="350037808"/>
+        <c:axId val="351596824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13047,7 +13054,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="350038984"/>
+        <c:crossAx val="351595648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13540,11 +13547,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="350039376"/>
-        <c:axId val="350041336"/>
+        <c:axId val="351595256"/>
+        <c:axId val="351600744"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="350039376"/>
+        <c:axId val="351595256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13587,7 +13594,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="350041336"/>
+        <c:crossAx val="351600744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13595,7 +13602,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="350041336"/>
+        <c:axId val="351600744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13646,7 +13653,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="350039376"/>
+        <c:crossAx val="351595256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14039,11 +14046,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="350037024"/>
-        <c:axId val="350034280"/>
+        <c:axId val="351596040"/>
+        <c:axId val="351597216"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="350037024"/>
+        <c:axId val="351596040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14086,7 +14093,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="350034280"/>
+        <c:crossAx val="351597216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14094,7 +14101,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="350034280"/>
+        <c:axId val="351597216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14145,7 +14152,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="350037024"/>
+        <c:crossAx val="351596040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14538,11 +14545,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="350035456"/>
-        <c:axId val="350036632"/>
+        <c:axId val="352425848"/>
+        <c:axId val="352426632"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="350035456"/>
+        <c:axId val="352425848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14585,7 +14592,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="350036632"/>
+        <c:crossAx val="352426632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14593,7 +14600,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="350036632"/>
+        <c:axId val="352426632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14644,7 +14651,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="350035456"/>
+        <c:crossAx val="352425848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -15038,11 +15045,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="350034672"/>
-        <c:axId val="350035064"/>
+        <c:axId val="352427024"/>
+        <c:axId val="352424280"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="350034672"/>
+        <c:axId val="352427024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15085,7 +15092,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="350035064"/>
+        <c:crossAx val="352424280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15093,7 +15100,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="350035064"/>
+        <c:axId val="352424280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15144,7 +15151,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="350034672"/>
+        <c:crossAx val="352427024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -33361,8 +33368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R468"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A420" zoomScale="93" workbookViewId="0">
-      <selection activeCell="D451" sqref="D451"/>
+    <sheetView tabSelected="1" topLeftCell="L22" zoomScale="93" workbookViewId="0">
+      <selection activeCell="P37" sqref="P37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -33985,20 +33992,20 @@
         <v>1000</v>
       </c>
       <c r="O35" s="1">
-        <f>(O25 - (N25*LOG(N25, 2))) / N25</f>
-        <v>7.7312157153379122</v>
+        <f>(O25 - (1.3*N25*LOG(N25, 2))) / N25</f>
+        <v>4.741480429939287</v>
       </c>
       <c r="P35" s="1">
-        <f>(P25 - (N25*LOG(N25, 2))) / N25</f>
-        <v>4.5042157153379119</v>
+        <f>(P25 - (1.3*N25*LOG(N25, 2))) / N25</f>
+        <v>1.5144804299392871</v>
       </c>
       <c r="Q35" s="1">
-        <f>(Q25 - (N25*LOG(N25, 2))) / N25</f>
-        <v>4.1452157153379119</v>
+        <f>(Q25 - (1.3*N25*LOG(N25, 2))) / N25</f>
+        <v>1.1554804299392871</v>
       </c>
       <c r="R35" s="1">
-        <f>(R25 - (N25*LOG(N25, 2))) / N25</f>
-        <v>-0.20378428466208789</v>
+        <f>(R25 - (1.3*N25*LOG(N25, 2))) / N25</f>
+        <v>-3.1935195700607126</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.45">
@@ -34025,20 +34032,20 @@
         <v>10000</v>
       </c>
       <c r="O36" s="1">
-        <f t="shared" ref="O36:O41" si="8">(O26 - (N26*LOG(N26, 2))) / N26</f>
-        <v>4.3186876204505502</v>
+        <f t="shared" ref="O36:O41" si="8">(O26 - (1.3*N26*LOG(N26, 2))) / N26</f>
+        <v>0.33237390658571386</v>
       </c>
       <c r="P36" s="1">
-        <f t="shared" ref="P36:P41" si="9">(P26 - (N26*LOG(N26, 2))) / N26</f>
-        <v>3.4984876204505504</v>
+        <f t="shared" ref="P36:P41" si="9">(P26 - (1.3*N26*LOG(N26, 2))) / N26</f>
+        <v>-0.48782609341428618</v>
       </c>
       <c r="Q36" s="1">
-        <f t="shared" ref="Q36:Q41" si="10">(Q26 - (N26*LOG(N26, 2))) / N26</f>
-        <v>3.8406876204505505</v>
+        <f t="shared" ref="Q36:Q41" si="10">(Q26 - (1.3*N26*LOG(N26, 2))) / N26</f>
+        <v>-0.14562609341428615</v>
       </c>
       <c r="R36" s="1">
-        <f t="shared" ref="R36:R41" si="11">(R26 - (N26*LOG(N26, 2))) / N26</f>
-        <v>-0.51041237954944951</v>
+        <f t="shared" ref="R36:R41" si="11">(R26 - (1.3*N26*LOG(N26, 2))) / N26</f>
+        <v>-4.4967260934142859</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.45">
@@ -34066,19 +34073,19 @@
       </c>
       <c r="O37" s="1">
         <f t="shared" si="8"/>
-        <v>5.166229525563188</v>
+        <v>0.18333738323214463</v>
       </c>
       <c r="P37" s="1">
         <f t="shared" si="9"/>
-        <v>6.0689895255631887</v>
+        <v>1.0860973832321446</v>
       </c>
       <c r="Q37" s="1">
         <f t="shared" si="10"/>
-        <v>6.6432895255631887</v>
+        <v>1.6603973832321446</v>
       </c>
       <c r="R37" s="1">
         <f t="shared" si="11"/>
-        <v>-0.65609047443681168</v>
+        <v>-5.6389826167678549</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.45">
@@ -34106,19 +34113,19 @@
       </c>
       <c r="O38" s="1">
         <f t="shared" si="8"/>
-        <v>7.060457430675827</v>
+        <v>1.0809868598785735</v>
       </c>
       <c r="P38" s="1">
         <f t="shared" si="9"/>
-        <v>2.6265654306758268</v>
+        <v>-3.3529051401214263</v>
       </c>
       <c r="Q38" s="1">
         <f t="shared" si="10"/>
-        <v>3.3230194306758269</v>
+        <v>-2.6564511401214266</v>
       </c>
       <c r="R38" s="1">
         <f t="shared" si="11"/>
-        <v>-0.10900556932417303</v>
+        <v>-6.0884761401214265</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.45">
@@ -34146,19 +34153,19 @@
       </c>
       <c r="O39" s="1">
         <f t="shared" si="8"/>
-        <v>4.008163135788462</v>
+        <v>-2.9678858634750007</v>
       </c>
       <c r="P39" s="1">
         <f t="shared" si="9"/>
-        <v>2.5666761357884615</v>
+        <v>-4.4093728634750011</v>
       </c>
       <c r="Q39" s="1">
         <f t="shared" si="10"/>
-        <v>3.2988126357884617</v>
+        <v>-3.6772363634750009</v>
       </c>
       <c r="R39" s="1">
         <f t="shared" si="11"/>
-        <v>-0.51090776421153838</v>
+        <v>-7.4869567634750007</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.45">
@@ -34186,19 +34193,19 @@
       </c>
       <c r="O40" s="1">
         <f t="shared" si="8"/>
-        <v>4.9770010909010987</v>
+        <v>-2.9956263368285705</v>
       </c>
       <c r="P40" s="1">
         <f t="shared" si="9"/>
-        <v>5.5376476609010981</v>
+        <v>-2.4349797668285702</v>
       </c>
       <c r="Q40" s="1">
         <f t="shared" si="10"/>
-        <v>6.2811227909010983</v>
+        <v>-1.6915046368285704</v>
       </c>
       <c r="R40" s="1">
         <f t="shared" si="11"/>
-        <v>-0.61721677909890171</v>
+        <v>-8.5898442068285696</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.45">
@@ -34226,19 +34233,19 @@
       </c>
       <c r="O41" s="1">
         <f t="shared" si="8"/>
-        <v>6.856185188013737</v>
+        <v>-2.113020668182144</v>
       </c>
       <c r="P41" s="1">
         <f t="shared" si="9"/>
-        <v>5.5391886850137366</v>
+        <v>-3.4300171711821443</v>
       </c>
       <c r="Q41" s="1">
         <f t="shared" si="10"/>
-        <v>6.2885657500137366</v>
+        <v>-2.6806401061821443</v>
       </c>
       <c r="R41" s="1">
         <f t="shared" si="11"/>
-        <v>8.0816100137367248E-3</v>
+        <v>-8.9611242461821448</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.45">
@@ -37271,20 +37278,20 @@
         <v>10000000</v>
       </c>
       <c r="B325" s="1">
-        <f>B320/ (A320*LOG(A320, 2))</f>
-        <v>1.4347863670477049E-3</v>
+        <f>B320/ (A320)</f>
+        <v>3.3363799999999999E-2</v>
       </c>
       <c r="C325" s="1">
-        <f>C320/ (A320*LOG(A320, 2))</f>
-        <v>2.7361476391601143E-4</v>
+        <f>C320/ (A320)</f>
+        <v>6.3625000000000001E-3</v>
       </c>
       <c r="D325" s="1">
-        <f>D320/ (A320*LOG(A320, 2))</f>
-        <v>4.2919566653217591E-4</v>
+        <f>D320/ (A320)</f>
+        <v>9.9802999999999992E-3</v>
       </c>
       <c r="E325" s="1">
-        <f>E320/ (A320*LOG(A320, 2))</f>
-        <v>6.1165424733262432E-4</v>
+        <f>E320/ (A320)</f>
+        <v>1.4223100000000001E-2</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.45">
@@ -37292,20 +37299,20 @@
         <v>100000000</v>
       </c>
       <c r="B326" s="1">
-        <f t="shared" ref="B326:B327" si="76">B321/ (A321*LOG(A321, 2))</f>
-        <v>1.2811501719588861E-3</v>
+        <f t="shared" ref="B326:B327" si="76">B321/ (A321)</f>
+        <v>3.4047109999999998E-2</v>
       </c>
       <c r="C326" s="1">
-        <f t="shared" ref="C326:C327" si="77">C321/ (A321*LOG(A321, 2))</f>
-        <v>2.4212896156238829E-4</v>
+        <f t="shared" ref="C326:C327" si="77">C321/ (A321)</f>
+        <v>6.4346799999999999E-3</v>
       </c>
       <c r="D326" s="1">
-        <f t="shared" ref="D326:D327" si="78">D321/ (A321*LOG(A321, 2))</f>
-        <v>5.0934613925090739E-4</v>
+        <f t="shared" ref="D326:D327" si="78">D321/ (A321)</f>
+        <v>1.3536090000000001E-2</v>
       </c>
       <c r="E326" s="1">
-        <f>E321/ (A321*LOG(A321, 2))</f>
-        <v>5.4004668335869848E-4</v>
+        <f t="shared" ref="E326:E327" si="79">E321/ (A321)</f>
+        <v>1.435197E-2</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.45">
@@ -37314,19 +37321,19 @@
       </c>
       <c r="B327" s="1">
         <f t="shared" si="76"/>
-        <v>1.1605263572816225E-3</v>
+        <v>3.4696666000000001E-2</v>
       </c>
       <c r="C327" s="1">
         <f t="shared" si="77"/>
-        <v>2.1529899424329004E-4</v>
+        <v>6.4368699999999999E-3</v>
       </c>
       <c r="D327" s="1">
         <f t="shared" si="78"/>
-        <v>5.2874266418179866E-4</v>
+        <v>1.5808005999999999E-2</v>
       </c>
       <c r="E327" s="1">
-        <f>E322/ (A322*LOG(A322, 2))</f>
-        <v>4.7529525672054102E-4</v>
+        <f t="shared" si="79"/>
+        <v>1.421007E-2</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.45">
@@ -37455,20 +37462,20 @@
         <v>10000000</v>
       </c>
       <c r="B341" s="1">
-        <f>B336/ (A336*LOG(A336, 2))</f>
-        <v>4.8959565799503502E-2</v>
+        <f>B336/ (A336)</f>
+        <v>1.1384810999999999</v>
       </c>
       <c r="C341" s="1">
-        <f>C336/ (A336*LOG(A336, 2))</f>
-        <v>4.3004276493997434E-2</v>
+        <f>C336/ (A336)</f>
+        <v>0.99999979999999999</v>
       </c>
       <c r="D341" s="1">
-        <f>D336/ (A336*LOG(A336, 2))</f>
-        <v>6.4812540744443869E-2</v>
+        <f>D336/ (A336)</f>
+        <v>1.5071182000000001</v>
       </c>
       <c r="E341" s="1">
-        <f>E336/ (A336*LOG(A336, 2))</f>
-        <v>4.3004276493997434E-2</v>
+        <f>E336/ (A336)</f>
+        <v>0.99999979999999999</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.45">
@@ -37476,20 +37483,20 @@
         <v>100000000</v>
       </c>
       <c r="B342" s="1">
-        <f t="shared" ref="B342:B343" si="79">B337/ (A337*LOG(A337, 2))</f>
-        <v>4.2487398422988945E-2</v>
+        <f t="shared" ref="B342:B343" si="80">B337/ (A337)</f>
+        <v>1.1291206600000001</v>
       </c>
       <c r="C342" s="1">
-        <f t="shared" ref="C342:C343" si="80">C337/ (A337*LOG(A337, 2))</f>
-        <v>3.7628748705422654E-2</v>
+        <f t="shared" ref="C342:C343" si="81">C337/ (A337)</f>
+        <v>0.99999998000000001</v>
       </c>
       <c r="D342" s="1">
-        <f t="shared" ref="D342:D343" si="81">D337/ (A337*LOG(A337, 2))</f>
-        <v>5.6505555926659706E-2</v>
+        <f t="shared" ref="D342:D343" si="82">D337/ (A337)</f>
+        <v>1.5016591500000001</v>
       </c>
       <c r="E342" s="1">
-        <f t="shared" ref="E342:E343" si="82">E337/ (A337*LOG(A337, 2))</f>
-        <v>3.762874832913516E-2</v>
+        <f t="shared" ref="E342:E343" si="83">E337/ (A337)</f>
+        <v>0.99999996999999996</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.45">
@@ -37497,20 +37504,20 @@
         <v>1000000000</v>
       </c>
       <c r="B343" s="1">
-        <f t="shared" si="79"/>
-        <v>3.7673011503753434E-2</v>
+        <f t="shared" si="80"/>
+        <v>1.1263233180000001</v>
       </c>
       <c r="C343" s="1">
-        <f t="shared" si="80"/>
-        <v>3.3447777229102353E-2</v>
+        <f t="shared" si="81"/>
+        <v>0.99999999799999995</v>
       </c>
       <c r="D343" s="1">
-        <f t="shared" si="81"/>
-        <v>5.0213994206508281E-2</v>
+        <f t="shared" si="82"/>
+        <v>1.5012655029999999</v>
       </c>
       <c r="E343" s="1">
-        <f t="shared" si="82"/>
-        <v>3.3447777262550132E-2</v>
+        <f t="shared" si="83"/>
+        <v>0.99999999900000003</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.45">
@@ -37625,20 +37632,20 @@
         <v>10000000</v>
       </c>
       <c r="B355" s="1">
-        <f>B350/ (A350*LOG(A350, 2))</f>
-        <v>0.12989204348989958</v>
+        <f>B350/ (A350)</f>
+        <v>3.0204442</v>
       </c>
       <c r="C355" s="1">
-        <f>C350/ (A350*LOG(A350, 2))</f>
-        <v>0.12901284238327784</v>
+        <f>C350/ (A350)</f>
+        <v>2.9999997</v>
       </c>
       <c r="D355" s="1">
-        <f>D350/ (A350*LOG(A350, 2))</f>
-        <v>0.17384918743088626</v>
+        <f>D350/ (A350)</f>
+        <v>4.0426015</v>
       </c>
       <c r="E355" s="1">
-        <f>E350/ (A350*LOG(A350, 2))</f>
-        <v>6.4506423341853164E-2</v>
+        <f>E350/ (A350)</f>
+        <v>1.4999998999999999</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.45">
@@ -37646,20 +37653,20 @@
         <v>100000000</v>
       </c>
       <c r="B356" s="1">
-        <f t="shared" ref="B356:B357" si="83">B351/ (A351*LOG(A351, 2))</f>
-        <v>0.11314187062882347</v>
+        <f t="shared" ref="B356:B357" si="84">B351/ (A351)</f>
+        <v>3.0067932700000002</v>
       </c>
       <c r="C356" s="1">
-        <f t="shared" ref="C356:C357" si="84">C351/ (A351*LOG(A351, 2))</f>
-        <v>0.11288624724513045</v>
+        <f t="shared" ref="C356:C357" si="85">C351/ (A351)</f>
+        <v>2.9999999700000002</v>
       </c>
       <c r="D356" s="1">
-        <f t="shared" ref="D356:D357" si="85">D351/ (A351*LOG(A351, 2))</f>
-        <v>0.15054984205398869</v>
+        <f t="shared" ref="D356:D357" si="86">D351/ (A351)</f>
+        <v>4.0009259999999998</v>
       </c>
       <c r="E356" s="1">
-        <f t="shared" ref="E356:E357" si="86">E351/ (A351*LOG(A351, 2))</f>
-        <v>5.644312381070897E-2</v>
+        <f t="shared" ref="E356:E357" si="87">E351/ (A351)</f>
+        <v>1.4999999900000001</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.45">
@@ -37667,20 +37674,20 @@
         <v>1000000000</v>
       </c>
       <c r="B357" s="1">
-        <f t="shared" si="83"/>
-        <v>0.10042004332834099</v>
+        <f t="shared" si="84"/>
+        <v>3.002293469</v>
       </c>
       <c r="C357" s="1">
-        <f t="shared" si="84"/>
-        <v>0.10034333168730707</v>
+        <f t="shared" si="85"/>
+        <v>2.9999999939999999</v>
       </c>
       <c r="D357" s="1">
-        <f t="shared" si="85"/>
-        <v>0.13458288219197698</v>
+        <f t="shared" si="86"/>
+        <v>4.0236719169999997</v>
       </c>
       <c r="E357" s="1">
-        <f t="shared" si="86"/>
-        <v>5.0171665943996864E-2</v>
+        <f t="shared" si="87"/>
+        <v>1.5</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.45">
@@ -37781,11 +37788,11 @@
         <v>100000000</v>
       </c>
       <c r="B376" s="1">
-        <f t="shared" ref="B376:B377" si="87">B371/ (A371*LOG(A371, 2))</f>
+        <f t="shared" ref="B376:B377" si="88">B371/ (A371*LOG(A371, 2))</f>
         <v>8.3264306029290705E-3</v>
       </c>
       <c r="C376" s="1">
-        <f t="shared" ref="C376:C377" si="88">C371/ (A371*LOG(A371, 2))</f>
+        <f t="shared" ref="C376:C377" si="89">C371/ (A371*LOG(A371, 2))</f>
         <v>6.9685275655507273E-3</v>
       </c>
       <c r="D376" s="1">
@@ -37793,7 +37800,7 @@
         <v>1.079903266275135E-2</v>
       </c>
       <c r="E376" s="1">
-        <f t="shared" ref="E376:E377" si="89">E371/ (A371*LOG(A371, 2))</f>
+        <f t="shared" ref="E376:E377" si="90">E371/ (A371*LOG(A371, 2))</f>
         <v>9.1996753472884021E-3</v>
       </c>
     </row>
@@ -37802,19 +37809,19 @@
         <v>1000000000</v>
       </c>
       <c r="B377" s="1">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>8.4526406814075371E-3</v>
       </c>
       <c r="C377" s="1">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>7.0019156887359182E-3</v>
       </c>
       <c r="D377" s="1">
-        <f t="shared" ref="D377" si="90">D372/ (A372*LOG(A372, 2))</f>
+        <f t="shared" ref="D377" si="91">D372/ (A372*LOG(A372, 2))</f>
         <v>1.110553976539533E-2</v>
       </c>
       <c r="E377" s="1">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>9.6227512316911096E-3</v>
       </c>
     </row>
@@ -37951,19 +37958,19 @@
         <v>100000000</v>
       </c>
       <c r="B390" s="1">
-        <f t="shared" ref="B390:B391" si="91">B385/ (A385*LOG(A385, 2))</f>
+        <f t="shared" ref="B390:B391" si="92">B385/ (A385*LOG(A385, 2))</f>
         <v>1.1895211819399674</v>
       </c>
       <c r="C390" s="1">
-        <f t="shared" ref="C390:C391" si="92">C385/ (A385*LOG(A385, 2))</f>
+        <f t="shared" ref="C390:C391" si="93">C385/ (A385*LOG(A385, 2))</f>
         <v>1.1348620205844124</v>
       </c>
       <c r="D390" s="1">
-        <f t="shared" ref="D390:D391" si="93">D385/ (A385*LOG(A385, 2))</f>
+        <f t="shared" ref="D390:D391" si="94">D385/ (A385*LOG(A385, 2))</f>
         <v>1.1646660571023542</v>
       </c>
       <c r="E390" s="1">
-        <f t="shared" ref="E390:E391" si="94">E385/ (A385*LOG(A385, 2))</f>
+        <f t="shared" ref="E390:E391" si="95">E385/ (A385*LOG(A385, 2))</f>
         <v>1.5177653623839071</v>
       </c>
     </row>
@@ -37972,19 +37979,19 @@
         <v>1000000000</v>
       </c>
       <c r="B391" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>1.2303861803970835</v>
       </c>
       <c r="C391" s="1">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>1.1580056035758324</v>
       </c>
       <c r="D391" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>1.1721572097754291</v>
       </c>
       <c r="E391" s="1">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>1.535540542944053</v>
       </c>
     </row>
@@ -38128,19 +38135,19 @@
         <v>100000000</v>
       </c>
       <c r="B405" s="1">
-        <f t="shared" ref="B405:B406" si="95">B400/ (A400*LOG(A400, 2))</f>
+        <f t="shared" ref="B405:B406" si="96">B400/ (A400*LOG(A400, 2))</f>
         <v>2.1457446654912289</v>
       </c>
       <c r="C405" s="1">
-        <f t="shared" ref="C405:C406" si="96">C400/ (A400*LOG(A400, 2))</f>
+        <f t="shared" ref="C405:C406" si="97">C400/ (A400*LOG(A400, 2))</f>
         <v>1.9610036544065781</v>
       </c>
       <c r="D405" s="1">
-        <f t="shared" ref="D405:D406" si="97">D400/ (A400*LOG(A400, 2))</f>
+        <f t="shared" ref="D405:D406" si="98">D400/ (A400*LOG(A400, 2))</f>
         <v>3.466242459528742</v>
       </c>
       <c r="E405" s="1">
-        <f t="shared" ref="E405:E406" si="98">E400/ (A400*LOG(A400, 2))</f>
+        <f t="shared" ref="E405:E406" si="99">E400/ (A400*LOG(A400, 2))</f>
         <v>3.7255515984218306</v>
       </c>
     </row>
@@ -38149,19 +38156,19 @@
         <v>1000000000</v>
       </c>
       <c r="B406" s="1">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>2.1472442034760451</v>
       </c>
       <c r="C406" s="1">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>1.9927756519439235</v>
       </c>
       <c r="D406" s="1">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>3.6523597798539122</v>
       </c>
       <c r="E406" s="1">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>3.7594986531061276</v>
       </c>
     </row>
@@ -38346,19 +38353,19 @@
         <v>10000</v>
       </c>
       <c r="B423" s="1">
-        <f t="shared" ref="B423:B426" si="99">B416/ (A416*LOG(A416, 2))</f>
+        <f t="shared" ref="B423:B426" si="100">B416/ (A416*LOG(A416, 2))</f>
         <v>0.14133358296423917</v>
       </c>
       <c r="C423" s="1">
-        <f t="shared" ref="C423:C426" si="100">C416/ (A416*LOG(A416, 2))</f>
+        <f t="shared" ref="C423:C426" si="101">C416/ (A416*LOG(A416, 2))</f>
         <v>0.13174577760234138</v>
       </c>
       <c r="D423" s="1">
-        <f t="shared" ref="D423:D426" si="101">D416/ (A416*LOG(A416, 2))</f>
+        <f t="shared" ref="D423:D426" si="102">D416/ (A416*LOG(A416, 2))</f>
         <v>0.12841939615025438</v>
       </c>
       <c r="E423" s="1">
-        <f t="shared" ref="E423:E426" si="102">E416/ (A416*LOG(A416, 2))</f>
+        <f t="shared" ref="E423:E426" si="103">E416/ (A416*LOG(A416, 2))</f>
         <v>0.15743116198237056</v>
       </c>
     </row>
@@ -38367,19 +38374,19 @@
         <v>100000</v>
       </c>
       <c r="B424" s="1">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>0.15214658040848938</v>
       </c>
       <c r="C424" s="1">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>0.11534265313861103</v>
       </c>
       <c r="D424" s="1">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>0.14654501424917402</v>
       </c>
       <c r="E424" s="1">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>0.15624660894943279</v>
       </c>
     </row>
@@ -38388,19 +38395,19 @@
         <v>1000000</v>
       </c>
       <c r="B425" s="1">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>0.14490966879772946</v>
       </c>
       <c r="C425" s="1">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>0.11722770297145889</v>
       </c>
       <c r="D425" s="1">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>0.1687696574557182</v>
       </c>
       <c r="E425" s="1">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>0.19764560858812399</v>
       </c>
     </row>
@@ -38409,19 +38416,19 @@
         <v>10000000</v>
       </c>
       <c r="B426" s="1">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>0.14049198480450434</v>
       </c>
       <c r="C426" s="1">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>0.11978081577239827</v>
       </c>
       <c r="D426" s="1">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>0.19994528423571387</v>
       </c>
       <c r="E426" s="1">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>0.20150247799985554</v>
       </c>
     </row>
@@ -38507,15 +38514,15 @@
         <v>10000000</v>
       </c>
       <c r="B439" s="1">
-        <f t="shared" ref="B439:B440" si="103">B434/ (A434*LOG(A434, 2))</f>
+        <f t="shared" ref="B439:B440" si="104">B434/ (A434*LOG(A434, 2))</f>
         <v>1.0092065008063044E-2</v>
       </c>
       <c r="C439" s="1">
-        <f t="shared" ref="C439:C440" si="104">C434/ (A434*LOG(A434, 2))</f>
+        <f t="shared" ref="C439:C440" si="105">C434/ (A434*LOG(A434, 2))</f>
         <v>8.2734481948297262E-3</v>
       </c>
       <c r="D439" s="1">
-        <f t="shared" ref="D439:D440" si="105">D434/ (A434*LOG(A434, 2))</f>
+        <f t="shared" ref="D439:D440" si="106">D434/ (A434*LOG(A434, 2))</f>
         <v>1.1267053887995714E-2</v>
       </c>
     </row>
@@ -38524,15 +38531,15 @@
         <v>100000000</v>
       </c>
       <c r="B440" s="1">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>1.0207057176278133E-2</v>
       </c>
       <c r="C440" s="1">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>8.4549640141901826E-3</v>
       </c>
       <c r="D440" s="1">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>1.5788662412868509E-2</v>
       </c>
     </row>
@@ -38648,15 +38655,15 @@
         <v>10000000</v>
       </c>
       <c r="B453" s="1">
-        <f t="shared" ref="B453:B454" si="106">B448/ (A448*LOG(A448, 2))</f>
+        <f t="shared" ref="B453:B454" si="107">B448/ (A448*LOG(A448, 2))</f>
         <v>1.1103958760636357</v>
       </c>
       <c r="C453" s="1">
-        <f t="shared" ref="C453:C454" si="107">C448/ (A448*LOG(A448, 2))</f>
+        <f t="shared" ref="C453:C454" si="108">C448/ (A448*LOG(A448, 2))</f>
         <v>1.1755109046490082</v>
       </c>
       <c r="D453" s="1">
-        <f t="shared" ref="D453:D454" si="108">D448/ (A448*LOG(A448, 2))</f>
+        <f t="shared" ref="D453:D454" si="109">D448/ (A448*LOG(A448, 2))</f>
         <v>1.0207752125525265</v>
       </c>
     </row>
@@ -38665,15 +38672,15 @@
         <v>100000000</v>
       </c>
       <c r="B454" s="1">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>1.2083626960282254</v>
       </c>
       <c r="C454" s="1">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>1.1910224768529054</v>
       </c>
       <c r="D454" s="1">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>1.0185743119959765</v>
       </c>
     </row>
@@ -38783,15 +38790,15 @@
         <v>10000000</v>
       </c>
       <c r="B466" s="1">
-        <f t="shared" ref="B466:B467" si="109">B461/ (A461*LOG(A461, 2))</f>
+        <f t="shared" ref="B466:B467" si="110">B461/ (A461*LOG(A461, 2))</f>
         <v>1.9980186451487967</v>
       </c>
       <c r="C466" s="1">
-        <f t="shared" ref="C466:C467" si="110">C461/ (A461*LOG(A461, 2))</f>
+        <f t="shared" ref="C466:C467" si="111">C461/ (A461*LOG(A461, 2))</f>
         <v>2.0947274082425236</v>
       </c>
       <c r="D466" s="1">
-        <f t="shared" ref="D466:D467" si="111">D461/ (A461*LOG(A461, 2))</f>
+        <f t="shared" ref="D466:D467" si="112">D461/ (A461*LOG(A461, 2))</f>
         <v>1.9896927446274366</v>
       </c>
     </row>
@@ -38800,15 +38807,15 @@
         <v>100000000</v>
       </c>
       <c r="B467" s="1">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>2.0825999626233869</v>
       </c>
       <c r="C467" s="1">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>2.1457233059078868</v>
       </c>
       <c r="D467" s="1">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>1.9917439717262588</v>
       </c>
     </row>

--- a/Ausarbeitung/Test_Diagramme.xlsx
+++ b/Ausarbeitung/Test_Diagramme.xlsx
@@ -14,9 +14,6 @@
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -162,7 +159,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -569,11 +565,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="449529040"/>
-        <c:axId val="449532960"/>
+        <c:axId val="351484632"/>
+        <c:axId val="351483456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="449529040"/>
+        <c:axId val="351484632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -616,7 +612,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="449532960"/>
+        <c:crossAx val="351483456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -624,7 +620,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="449532960"/>
+        <c:axId val="351483456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -675,7 +671,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="449529040"/>
+        <c:crossAx val="351484632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -689,7 +685,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -809,7 +804,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1088,11 +1082,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="449538056"/>
-        <c:axId val="449537664"/>
+        <c:axId val="352280896"/>
+        <c:axId val="352285600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="449538056"/>
+        <c:axId val="352280896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1135,7 +1129,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="449537664"/>
+        <c:crossAx val="352285600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1143,7 +1137,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="449537664"/>
+        <c:axId val="352285600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1194,7 +1188,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="449538056"/>
+        <c:crossAx val="352280896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1208,7 +1202,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1606,11 +1599,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="449537272"/>
-        <c:axId val="449534920"/>
+        <c:axId val="352286384"/>
+        <c:axId val="352287168"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="449537272"/>
+        <c:axId val="352286384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1653,7 +1646,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="449534920"/>
+        <c:crossAx val="352287168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1661,7 +1654,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="449534920"/>
+        <c:axId val="352287168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1712,7 +1705,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="449537272"/>
+        <c:crossAx val="352286384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -1846,7 +1839,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2125,11 +2117,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="449536096"/>
-        <c:axId val="449536488"/>
+        <c:axId val="352284424"/>
+        <c:axId val="352287560"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="449536096"/>
+        <c:axId val="352284424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2172,7 +2164,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="449536488"/>
+        <c:crossAx val="352287560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2180,7 +2172,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="449536488"/>
+        <c:axId val="352287560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2231,7 +2223,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="449536096"/>
+        <c:crossAx val="352284424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2245,7 +2237,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2365,7 +2356,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2644,11 +2634,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="455398128"/>
-        <c:axId val="455396168"/>
+        <c:axId val="352280504"/>
+        <c:axId val="352281288"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="455398128"/>
+        <c:axId val="352280504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2691,7 +2681,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="455396168"/>
+        <c:crossAx val="352281288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2699,7 +2689,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="455396168"/>
+        <c:axId val="352281288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2750,7 +2740,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="455398128"/>
+        <c:crossAx val="352280504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2764,7 +2754,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2884,7 +2873,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3163,11 +3151,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="455396952"/>
-        <c:axId val="455397344"/>
+        <c:axId val="350432232"/>
+        <c:axId val="353000504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="455396952"/>
+        <c:axId val="350432232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3210,7 +3198,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="455397344"/>
+        <c:crossAx val="353000504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3218,7 +3206,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="455397344"/>
+        <c:axId val="353000504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3269,7 +3257,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="455396952"/>
+        <c:crossAx val="350432232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -3284,7 +3272,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3404,7 +3391,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3683,11 +3669,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="455398520"/>
-        <c:axId val="455399304"/>
+        <c:axId val="353002464"/>
+        <c:axId val="353002856"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="455398520"/>
+        <c:axId val="353002464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3730,7 +3716,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="455399304"/>
+        <c:crossAx val="353002856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3738,7 +3724,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="455399304"/>
+        <c:axId val="353002856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3789,7 +3775,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="455398520"/>
+        <c:crossAx val="353002464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -3804,7 +3790,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3924,7 +3909,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4203,11 +4187,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="455399696"/>
-        <c:axId val="455397736"/>
+        <c:axId val="352998152"/>
+        <c:axId val="353003640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="455399696"/>
+        <c:axId val="352998152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4250,7 +4234,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="455397736"/>
+        <c:crossAx val="353003640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4258,7 +4242,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="455397736"/>
+        <c:axId val="353003640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4309,7 +4293,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="455399696"/>
+        <c:crossAx val="352998152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4323,7 +4307,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4443,7 +4426,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4722,11 +4704,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="455400088"/>
-        <c:axId val="455400480"/>
+        <c:axId val="352998544"/>
+        <c:axId val="353001680"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="455400088"/>
+        <c:axId val="352998544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4769,7 +4751,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="455400480"/>
+        <c:crossAx val="353001680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4777,7 +4759,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="455400480"/>
+        <c:axId val="353001680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4828,7 +4810,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="455400088"/>
+        <c:crossAx val="352998544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4842,7 +4824,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4962,7 +4943,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5241,11 +5221,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="455400872"/>
-        <c:axId val="455401264"/>
+        <c:axId val="353004032"/>
+        <c:axId val="353004424"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="455400872"/>
+        <c:axId val="353004032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5288,7 +5268,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="455401264"/>
+        <c:crossAx val="353004424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5296,7 +5276,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="455401264"/>
+        <c:axId val="353004424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5347,7 +5327,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="455400872"/>
+        <c:crossAx val="353004032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5361,7 +5341,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5477,7 +5456,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5756,11 +5734,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="455402440"/>
-        <c:axId val="455402832"/>
+        <c:axId val="352998936"/>
+        <c:axId val="352999328"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="455402440"/>
+        <c:axId val="352998936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5803,7 +5781,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="455402832"/>
+        <c:crossAx val="352999328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5811,7 +5789,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="455402832"/>
+        <c:axId val="352999328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5862,7 +5840,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="455402440"/>
+        <c:crossAx val="352998936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5876,7 +5854,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6394,11 +6371,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="449522768"/>
-        <c:axId val="449533352"/>
+        <c:axId val="351483064"/>
+        <c:axId val="351482672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="449522768"/>
+        <c:axId val="351483064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6441,7 +6418,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="449533352"/>
+        <c:crossAx val="351482672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6449,7 +6426,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="449533352"/>
+        <c:axId val="351482672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6500,7 +6477,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="449522768"/>
+        <c:crossAx val="351483064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6630,7 +6607,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6909,11 +6885,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="455393032"/>
-        <c:axId val="455393424"/>
+        <c:axId val="353000112"/>
+        <c:axId val="353000896"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="455393032"/>
+        <c:axId val="353000112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6956,7 +6932,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="455393424"/>
+        <c:crossAx val="353000896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6964,7 +6940,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="455393424"/>
+        <c:axId val="353000896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7015,7 +6991,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="455393032"/>
+        <c:crossAx val="353000112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7029,7 +7005,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7145,7 +7120,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7424,11 +7398,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="455404792"/>
-        <c:axId val="455392640"/>
+        <c:axId val="353604616"/>
+        <c:axId val="353605792"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="455404792"/>
+        <c:axId val="353604616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7471,7 +7445,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="455392640"/>
+        <c:crossAx val="353605792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7479,7 +7453,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="455392640"/>
+        <c:axId val="353605792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7530,7 +7504,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="455404792"/>
+        <c:crossAx val="353604616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7544,7 +7518,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8071,11 +8044,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="455405968"/>
-        <c:axId val="455407928"/>
+        <c:axId val="353605008"/>
+        <c:axId val="353605400"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="455405968"/>
+        <c:axId val="353605008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8118,7 +8091,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="455407928"/>
+        <c:crossAx val="353605400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8126,7 +8099,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="455407928"/>
+        <c:axId val="353605400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8177,7 +8150,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="455405968"/>
+        <c:crossAx val="353605008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8316,7 +8289,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8595,11 +8567,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="455405184"/>
-        <c:axId val="455405576"/>
+        <c:axId val="353609320"/>
+        <c:axId val="353606968"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="455405184"/>
+        <c:axId val="353609320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8642,7 +8614,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="455405576"/>
+        <c:crossAx val="353606968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8650,7 +8622,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="455405576"/>
+        <c:axId val="353606968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8701,7 +8673,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="455405184"/>
+        <c:crossAx val="353609320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8715,7 +8687,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8831,7 +8802,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9110,11 +9080,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="455406752"/>
-        <c:axId val="455407144"/>
+        <c:axId val="353606184"/>
+        <c:axId val="353607360"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="455406752"/>
+        <c:axId val="353606184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9157,7 +9127,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="455407144"/>
+        <c:crossAx val="353607360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9165,7 +9135,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="455407144"/>
+        <c:axId val="353607360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9216,7 +9186,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="455406752"/>
+        <c:crossAx val="353606184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9230,7 +9200,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9346,7 +9315,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9625,11 +9593,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="448769144"/>
-        <c:axId val="448764832"/>
+        <c:axId val="353610104"/>
+        <c:axId val="353603832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="448769144"/>
+        <c:axId val="353610104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9672,7 +9640,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448764832"/>
+        <c:crossAx val="353603832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9680,7 +9648,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="448764832"/>
+        <c:axId val="353603832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9731,7 +9699,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448769144"/>
+        <c:crossAx val="353610104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9745,7 +9713,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9870,7 +9837,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10091,11 +10057,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="448776984"/>
-        <c:axId val="448774632"/>
+        <c:axId val="353608144"/>
+        <c:axId val="353610888"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="448776984"/>
+        <c:axId val="353608144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10138,7 +10104,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448774632"/>
+        <c:crossAx val="353610888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10146,7 +10112,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="448774632"/>
+        <c:axId val="353610888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10197,7 +10163,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448776984"/>
+        <c:crossAx val="353608144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10211,7 +10177,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10327,7 +10292,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10548,11 +10512,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="448765616"/>
-        <c:axId val="448767968"/>
+        <c:axId val="353611280"/>
+        <c:axId val="353604224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="448765616"/>
+        <c:axId val="353611280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10595,7 +10559,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448767968"/>
+        <c:crossAx val="353604224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10603,7 +10567,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="448767968"/>
+        <c:axId val="353604224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10654,7 +10618,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448765616"/>
+        <c:crossAx val="353611280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10668,7 +10632,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10784,7 +10747,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11005,11 +10967,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="448771888"/>
-        <c:axId val="448768752"/>
+        <c:axId val="374176960"/>
+        <c:axId val="374179312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="448771888"/>
+        <c:axId val="374176960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11052,7 +11014,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448768752"/>
+        <c:crossAx val="374179312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11060,7 +11022,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="448768752"/>
+        <c:axId val="374179312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11111,7 +11073,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448771888"/>
+        <c:crossAx val="374176960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11125,7 +11087,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11287,7 +11248,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Tabelle1!$B$1</c:f>
+              <c:f>Tabelle1!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11308,7 +11269,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>[1]Tabelle1!$A$11:$A$17</c:f>
+              <c:f>Tabelle1!$A$11:$A$17</c:f>
               <c:numCache>
                 <c:formatCode>0.0E+00</c:formatCode>
                 <c:ptCount val="7"/>
@@ -11338,9 +11299,9 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Tabelle1!$O$59:$O$65</c:f>
+              <c:f>Tabelle1!$O$59:$O$65</c:f>
               <c:numCache>
-                <c:formatCode>0.0E+00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>-0.11478428466208788</c:v>
@@ -11377,7 +11338,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Tabelle1!$C$1</c:f>
+              <c:f>Tabelle1!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11398,7 +11359,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>[1]Tabelle1!$A$11:$A$17</c:f>
+              <c:f>Tabelle1!$A$11:$A$17</c:f>
               <c:numCache>
                 <c:formatCode>0.0E+00</c:formatCode>
                 <c:ptCount val="7"/>
@@ -11428,9 +11389,9 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Tabelle1!$P$59:$P$65</c:f>
+              <c:f>Tabelle1!$P$59:$P$65</c:f>
               <c:numCache>
-                <c:formatCode>0.0E+00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.82121571533791216</c:v>
@@ -11467,7 +11428,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Tabelle1!$D$1</c:f>
+              <c:f>Tabelle1!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11488,7 +11449,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>[1]Tabelle1!$A$11:$A$17</c:f>
+              <c:f>Tabelle1!$A$11:$A$17</c:f>
               <c:numCache>
                 <c:formatCode>0.0E+00</c:formatCode>
                 <c:ptCount val="7"/>
@@ -11518,9 +11479,9 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Tabelle1!$Q$59:$Q$65</c:f>
+              <c:f>Tabelle1!$Q$59:$Q$65</c:f>
               <c:numCache>
-                <c:formatCode>0.0E+00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.59421571533791206</c:v>
@@ -11557,7 +11518,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Tabelle1!$E$1</c:f>
+              <c:f>Tabelle1!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11578,7 +11539,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>[1]Tabelle1!$A$11:$A$17</c:f>
+              <c:f>Tabelle1!$A$11:$A$17</c:f>
               <c:numCache>
                 <c:formatCode>0.0E+00</c:formatCode>
                 <c:ptCount val="7"/>
@@ -11608,9 +11569,9 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Tabelle1!$R$59:$R$65</c:f>
+              <c:f>Tabelle1!$R$59:$R$65</c:f>
               <c:numCache>
-                <c:formatCode>0.0E+00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>-0.20378428466208789</c:v>
@@ -11652,11 +11613,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="446924520"/>
-        <c:axId val="448610224"/>
+        <c:axId val="374178136"/>
+        <c:axId val="374179704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="446924520"/>
+        <c:axId val="374178136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11699,7 +11660,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448610224"/>
+        <c:crossAx val="374179704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11707,7 +11668,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="448610224"/>
+        <c:axId val="374179704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11727,7 +11688,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.0E+00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -11758,7 +11719,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="446924520"/>
+        <c:crossAx val="374178136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12286,11 +12247,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="449524728"/>
-        <c:axId val="449531000"/>
+        <c:axId val="351485024"/>
+        <c:axId val="351481496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="449524728"/>
+        <c:axId val="351485024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12333,7 +12294,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="449531000"/>
+        <c:crossAx val="351481496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12341,7 +12302,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="449531000"/>
+        <c:axId val="351481496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12392,7 +12353,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="449524728"/>
+        <c:crossAx val="351485024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12905,11 +12866,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="449528256"/>
-        <c:axId val="449525120"/>
+        <c:axId val="351481104"/>
+        <c:axId val="351486984"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="449528256"/>
+        <c:axId val="351481104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12952,7 +12913,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="449525120"/>
+        <c:crossAx val="351486984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12960,7 +12921,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="449525120"/>
+        <c:axId val="351486984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13011,7 +12972,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="449528256"/>
+        <c:crossAx val="351481104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13141,7 +13102,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13524,11 +13484,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="449523552"/>
-        <c:axId val="449530608"/>
+        <c:axId val="351486592"/>
+        <c:axId val="351487376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="449523552"/>
+        <c:axId val="351486592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13571,7 +13531,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="449530608"/>
+        <c:crossAx val="351487376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13579,7 +13539,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="449530608"/>
+        <c:axId val="351487376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13630,7 +13590,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="449523552"/>
+        <c:crossAx val="351486592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13644,7 +13604,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13760,7 +13719,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14143,11 +14101,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="449523944"/>
-        <c:axId val="449529432"/>
+        <c:axId val="351480712"/>
+        <c:axId val="351481888"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="449523944"/>
+        <c:axId val="351480712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14190,7 +14148,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="449529432"/>
+        <c:crossAx val="351481888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14198,7 +14156,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="449529432"/>
+        <c:axId val="351481888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14249,7 +14207,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="449523944"/>
+        <c:crossAx val="351480712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14263,7 +14221,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14383,7 +14340,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14662,11 +14618,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="449525512"/>
-        <c:axId val="449532176"/>
+        <c:axId val="352286776"/>
+        <c:axId val="352282072"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="449525512"/>
+        <c:axId val="352286776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14709,7 +14665,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="449532176"/>
+        <c:crossAx val="352282072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14717,7 +14673,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="449532176"/>
+        <c:axId val="352282072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14768,7 +14724,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="449525512"/>
+        <c:crossAx val="352286776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14782,7 +14738,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14902,7 +14857,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15181,11 +15135,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="449526688"/>
-        <c:axId val="449531392"/>
+        <c:axId val="352282464"/>
+        <c:axId val="352284816"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="449526688"/>
+        <c:axId val="352282464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15228,7 +15182,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="449531392"/>
+        <c:crossAx val="352284816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15236,7 +15190,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="449531392"/>
+        <c:axId val="352284816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15287,7 +15241,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="449526688"/>
+        <c:crossAx val="352282464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -15302,7 +15256,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15422,7 +15375,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15701,11 +15653,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="449531784"/>
-        <c:axId val="449532568"/>
+        <c:axId val="352283248"/>
+        <c:axId val="352285208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="449531784"/>
+        <c:axId val="352283248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15748,7 +15700,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="449532568"/>
+        <c:crossAx val="352285208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15756,7 +15708,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="449532568"/>
+        <c:axId val="352285208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15807,7 +15759,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="449531784"/>
+        <c:crossAx val="352283248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -15822,7 +15774,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -31656,7 +31607,7 @@
         <xdr:cNvPr id="5" name="Diagramm 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31692,7 +31643,7 @@
         <xdr:cNvPr id="9" name="Diagramm 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31730,7 +31681,7 @@
         <xdr:cNvPr id="10" name="Diagramm 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31768,7 +31719,7 @@
         <xdr:cNvPr id="13" name="Diagramm 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31806,7 +31757,7 @@
         <xdr:cNvPr id="15" name="Diagramm 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31844,7 +31795,7 @@
         <xdr:cNvPr id="17" name="Diagramm 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000011000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31882,7 +31833,7 @@
         <xdr:cNvPr id="12" name="Diagramm 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31920,7 +31871,7 @@
         <xdr:cNvPr id="18" name="Diagramm 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000012000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31958,7 +31909,7 @@
         <xdr:cNvPr id="21" name="Diagramm 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000015000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31996,7 +31947,7 @@
         <xdr:cNvPr id="22" name="Diagramm 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000016000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32034,7 +31985,7 @@
         <xdr:cNvPr id="27" name="Diagramm 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32072,7 +32023,7 @@
         <xdr:cNvPr id="29" name="Diagramm 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32110,7 +32061,7 @@
         <xdr:cNvPr id="32" name="Diagramm 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000020000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32148,7 +32099,7 @@
         <xdr:cNvPr id="34" name="Diagramm 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000022000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32186,7 +32137,7 @@
         <xdr:cNvPr id="36" name="Diagramm 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000024000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32224,7 +32175,7 @@
         <xdr:cNvPr id="26" name="Diagramm 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32262,7 +32213,7 @@
         <xdr:cNvPr id="28" name="Diagramm 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32300,7 +32251,7 @@
         <xdr:cNvPr id="30" name="Diagramm 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32338,7 +32289,7 @@
         <xdr:cNvPr id="39" name="Diagramm 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000027000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32376,7 +32327,7 @@
         <xdr:cNvPr id="41" name="Diagramm 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000029000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32414,7 +32365,7 @@
         <xdr:cNvPr id="44" name="Diagramm 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32452,7 +32403,7 @@
         <xdr:cNvPr id="46" name="Diagramm 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32490,7 +32441,7 @@
         <xdr:cNvPr id="48" name="Diagramm 47">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000030000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32528,7 +32479,7 @@
         <xdr:cNvPr id="43" name="Diagramm 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32566,7 +32517,7 @@
         <xdr:cNvPr id="50" name="Diagramm 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000032000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32604,7 +32555,7 @@
         <xdr:cNvPr id="49" name="Diagramm 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000031000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32642,7 +32593,7 @@
         <xdr:cNvPr id="57" name="Diagramm 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000039000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000039000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32680,7 +32631,7 @@
         <xdr:cNvPr id="58" name="Diagramm 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32718,7 +32669,7 @@
         <xdr:cNvPr id="31" name="Diagramm 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32739,167 +32690,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Tabelle1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>Reinhardt</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>Chen</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>Huang/Langston</v>
-          </cell>
-          <cell r="E1" t="str">
-            <v>StdStableSort</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>1000</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>10000</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>100000</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>1000000</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>10000000</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>100000000</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>1000000000</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="O59">
-            <v>-0.11478428466208788</v>
-          </cell>
-          <cell r="P59">
-            <v>0.82121571533791216</v>
-          </cell>
-          <cell r="Q59">
-            <v>0.59421571533791206</v>
-          </cell>
-          <cell r="R59">
-            <v>-0.20378428466208789</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="O60">
-            <v>-0.6970123795494495</v>
-          </cell>
-          <cell r="P60">
-            <v>-0.31001237954944955</v>
-          </cell>
-          <cell r="Q60">
-            <v>0.14438762045055045</v>
-          </cell>
-          <cell r="R60">
-            <v>-0.5105123795494495</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="O61">
-            <v>-0.76653047443681166</v>
-          </cell>
-          <cell r="P61">
-            <v>-0.74901047443681168</v>
-          </cell>
-          <cell r="Q61">
-            <v>-0.12044047443681163</v>
-          </cell>
-          <cell r="R61">
-            <v>-0.65594047443681158</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="O62">
-            <v>-0.76618856932417301</v>
-          </cell>
-          <cell r="P62">
-            <v>-0.92369156932417307</v>
-          </cell>
-          <cell r="Q62">
-            <v>-0.21293056932417304</v>
-          </cell>
-          <cell r="R62">
-            <v>-0.10882056932417303</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="O63">
-            <v>-0.78343896421153847</v>
-          </cell>
-          <cell r="P63">
-            <v>-0.96450106421153847</v>
-          </cell>
-          <cell r="Q63">
-            <v>-0.22560026421153842</v>
-          </cell>
-          <cell r="R63">
-            <v>-0.5108832642115384</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="O64">
-            <v>-0.7444724590989017</v>
-          </cell>
-          <cell r="P64">
-            <v>-0.98623519909890178</v>
-          </cell>
-          <cell r="Q64">
-            <v>-0.24078321909890174</v>
-          </cell>
-          <cell r="R64">
-            <v>-0.61714966909890179</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="O65">
-            <v>-0.78437487798626326</v>
-          </cell>
-          <cell r="P65">
-            <v>-1.0010840589862633</v>
-          </cell>
-          <cell r="Q65">
-            <v>-0.25125393198626328</v>
-          </cell>
-          <cell r="R65">
-            <v>8.0737800137367245E-3</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -33167,8 +32957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R434"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K36" zoomScale="86" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AC56" sqref="AC56"/>
+    <sheetView tabSelected="1" topLeftCell="K34" zoomScale="86" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="R65" sqref="O59:R65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -34353,19 +34143,19 @@
       <c r="N59" s="3">
         <v>1000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="O59" s="2">
         <f>(O49 - (N49*LOG(N49, 2))) / N49</f>
         <v>-0.11478428466208788</v>
       </c>
-      <c r="P59" s="3">
+      <c r="P59" s="2">
         <f>(P49 - (N49*LOG(N49, 2))) / N49</f>
         <v>0.82121571533791216</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="Q59" s="2">
         <f>(Q49 - (N49*LOG(N49, 2))) / N49</f>
         <v>0.59421571533791206</v>
       </c>
-      <c r="R59" s="3">
+      <c r="R59" s="2">
         <f>(R49 - (N49*LOG(N49, 2))) / N49</f>
         <v>-0.20378428466208789</v>
       </c>
@@ -34393,19 +34183,19 @@
       <c r="N60" s="3">
         <v>10000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="O60" s="2">
         <f t="shared" ref="O60:O65" si="16">(O50 - (N50*LOG(N50, 2))) / N50</f>
         <v>-0.6970123795494495</v>
       </c>
-      <c r="P60" s="3">
+      <c r="P60" s="2">
         <f t="shared" ref="P60:P65" si="17">(P50 - (N50*LOG(N50, 2))) / N50</f>
         <v>-0.31001237954944955</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="Q60" s="2">
         <f t="shared" ref="Q60:Q65" si="18">(Q50 - (N50*LOG(N50, 2))) / N50</f>
         <v>0.14438762045055045</v>
       </c>
-      <c r="R60" s="3">
+      <c r="R60" s="2">
         <f t="shared" ref="R60:R65" si="19">(R50 - (N50*LOG(N50, 2))) / N50</f>
         <v>-0.5105123795494495</v>
       </c>
@@ -34433,19 +34223,19 @@
       <c r="N61" s="3">
         <v>100000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="O61" s="2">
         <f t="shared" si="16"/>
         <v>-0.76653047443681166</v>
       </c>
-      <c r="P61" s="3">
+      <c r="P61" s="2">
         <f t="shared" si="17"/>
         <v>-0.74901047443681168</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="Q61" s="2">
         <f t="shared" si="18"/>
         <v>-0.12044047443681163</v>
       </c>
-      <c r="R61" s="3">
+      <c r="R61" s="2">
         <f t="shared" si="19"/>
         <v>-0.65594047443681158</v>
       </c>
@@ -34455,19 +34245,19 @@
       <c r="N62" s="3">
         <v>1000000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="O62" s="2">
         <f t="shared" si="16"/>
         <v>-0.76618856932417301</v>
       </c>
-      <c r="P62" s="3">
+      <c r="P62" s="2">
         <f t="shared" si="17"/>
         <v>-0.92369156932417307</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="Q62" s="2">
         <f t="shared" si="18"/>
         <v>-0.21293056932417304</v>
       </c>
-      <c r="R62" s="3">
+      <c r="R62" s="2">
         <f t="shared" si="19"/>
         <v>-0.10882056932417303</v>
       </c>
@@ -34477,19 +34267,19 @@
       <c r="N63" s="3">
         <v>10000000</v>
       </c>
-      <c r="O63" s="3">
+      <c r="O63" s="2">
         <f t="shared" si="16"/>
         <v>-0.78343896421153847</v>
       </c>
-      <c r="P63" s="3">
+      <c r="P63" s="2">
         <f t="shared" si="17"/>
         <v>-0.96450106421153847</v>
       </c>
-      <c r="Q63" s="3">
+      <c r="Q63" s="2">
         <f t="shared" si="18"/>
         <v>-0.22560026421153842</v>
       </c>
-      <c r="R63" s="3">
+      <c r="R63" s="2">
         <f t="shared" si="19"/>
         <v>-0.5108832642115384</v>
       </c>
@@ -34499,19 +34289,19 @@
       <c r="N64" s="3">
         <v>100000000</v>
       </c>
-      <c r="O64" s="3">
+      <c r="O64" s="2">
         <f t="shared" si="16"/>
         <v>-0.7444724590989017</v>
       </c>
-      <c r="P64" s="3">
+      <c r="P64" s="2">
         <f t="shared" si="17"/>
         <v>-0.98623519909890178</v>
       </c>
-      <c r="Q64" s="3">
+      <c r="Q64" s="2">
         <f t="shared" si="18"/>
         <v>-0.24078321909890174</v>
       </c>
-      <c r="R64" s="3">
+      <c r="R64" s="2">
         <f t="shared" si="19"/>
         <v>-0.61714966909890179</v>
       </c>
@@ -34521,19 +34311,19 @@
       <c r="N65" s="3">
         <v>1000000000</v>
       </c>
-      <c r="O65" s="3">
+      <c r="O65" s="2">
         <f t="shared" si="16"/>
         <v>-0.78437487798626326</v>
       </c>
-      <c r="P65" s="3">
+      <c r="P65" s="2">
         <f t="shared" si="17"/>
         <v>-1.0010840589862633</v>
       </c>
-      <c r="Q65" s="3">
+      <c r="Q65" s="2">
         <f t="shared" si="18"/>
         <v>-0.25125393198626328</v>
       </c>
-      <c r="R65" s="3">
+      <c r="R65" s="2">
         <f t="shared" si="19"/>
         <v>8.0737800137367245E-3</v>
       </c>
